--- a/www/terminologies/ValueSet-jdv-malformation-antenatale-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-malformation-antenatale-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250606103858</t>
+    <t>20250624152100</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-06T10:38:58+01:00</t>
+    <t>2025-06-24T15:21:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ValueSet-jdv-malformation-antenatale-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-malformation-antenatale-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152100</t>
+    <t>20251028115834</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:21:00+01:00</t>
+    <t>2025-10-28T11:58:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ValueSet-jdv-malformation-antenatale-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-malformation-antenatale-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20251028115834</t>
+    <t>20251216141840</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:58:34+01:00</t>
+    <t>2025-12-16T14:18:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
